--- a/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/Task2_48hr_48well_discon_170901_135527_wellNames.xlsx
+++ b/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/Task2_48hr_48well_discon_170901_135527_wellNames.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessicazellinger/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/WRShoemaker/GitHub/Task2_Traits/data/uMax/raw_data/Task2_48hr_48well_discon_170901_135527/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="640" windowWidth="10500" windowHeight="13240" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="640" windowWidth="10500" windowHeight="13240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>3</v>
       </c>
       <c r="D13">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -807,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="D15">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="D16">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -875,7 +875,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
       <c r="D20">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -909,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -960,7 +960,7 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -1011,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -1045,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -1062,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="D31">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>3</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -1130,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -1147,7 +1147,7 @@
         <v>2</v>
       </c>
       <c r="D35">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -1164,7 +1164,7 @@
         <v>3</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1215,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1232,7 +1232,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1300,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
